--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7849,4 +7850,8412 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H221"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>212.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1733</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5833</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2831</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1584</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1187</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0874</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0749</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8826</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8248</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7895</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7779</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7751</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7561</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6256</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16258,4 +16259,4200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0641</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1120</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6817</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6258</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6212</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2960</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20455,4 +20456,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>220</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.84999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20464,7 +20465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20475,17 +20476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20495,14 +20516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.41</v>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -20511,14 +20554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>220</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85.84999999999999</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -20527,14 +20592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>119</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.41</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -20543,13 +20630,2771 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0506</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0365</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7274</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>220</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>119</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23293,7 +23294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23304,17 +23305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23324,14 +23345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.39</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -23340,14 +23383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.41</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -23356,14 +23421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>220</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85.84999999999999</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2376</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -23372,14 +23459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>119</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.41</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -23388,13 +23497,2333 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7453</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.84999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>119</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25706,7 +25707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25717,17 +25718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25737,14 +25758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.59</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -25753,14 +25796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.39</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -25769,14 +25834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.41</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -25785,14 +25872,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>220</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85.84999999999999</v>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -25801,14 +25910,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>119</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.41</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -25817,13 +25948,3183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5943</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5915</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>220</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85.84999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>119</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>73</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>26.57</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>28.59</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>50.39</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>44.41</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>85.84999999999999</v>
+        <v>44.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="D7" t="n">
-        <v>27.41</v>
+        <v>85.84999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>73</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.18</v>
       </c>
     </row>
@@ -600,6 +617,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3883,7 +4716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6295,7 +7128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9123,7 +9956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13319,7 +14152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21727,7 +22560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26305,7 +27138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/603486-科沃斯.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>3.56</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>26.57</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>28.59</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>50.39</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>44.41</v>
+        <v>50.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>85.84999999999999</v>
+        <v>44.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="D8" t="n">
-        <v>27.41</v>
+        <v>85.84999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2858 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>73</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002588</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004416</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3462,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015573</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015617</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +5663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4716,7 +8947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7128,7 +11359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9956,7 +14187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14152,7 +18383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22560,7 +26791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27136,2832 +31367,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7289</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>180003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华-道琼斯88指数 A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0212</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9526</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>240008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝收益增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8613</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5977</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>375010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根中国优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5898</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5306</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>370024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5278</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4194</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4194</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4119</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>530001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信恒久价值混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4104</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3806</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>121002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银景气行业混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3696</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000073</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根成长动力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3659</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>30.67</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3435</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000592</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信改革红利股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3317</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008166</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3112</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2755</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2618</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>379010</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>上投摩根中小盘混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2527</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2234</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1988</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>376510</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>上投摩根大盘蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1956</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1877</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008177</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>建信高股息主题股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1849</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001703</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华沪港深增长股票</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>255010</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国联安稳健混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>69.76</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1061</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0933</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007388</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>519150</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>新华优选消费混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>377150</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>上投摩根健康品质生活混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0647</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006251</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>银华兴盛股票</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>001808</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>银华互联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008167</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>工银瑞信消费行业股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010058</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>天弘荣创一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>27.38</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0402</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001482</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>上投摩根新兴服务股票</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>610007</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>信达澳银消费优选混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>002654</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>上投摩根策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007389</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>004891</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002588</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>004892</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>华润元大成长精选股票C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>92.59</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>008077</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>九泰天奕量化价值混合A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>008137</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>九泰天奕量化价值混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>004416</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>